--- a/자유수강권/마술(재료).xlsx
+++ b/자유수강권/마술(재료).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="73">
   <si>
     <t>주야</t>
   </si>
@@ -49,15 +49,21 @@
     <t>1반</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>고건</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
     <t>김민성</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2반</t>
   </si>
   <si>
@@ -151,6 +157,12 @@
     <t>권주안</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
     <t>정주은</t>
   </si>
   <si>
@@ -163,6 +175,12 @@
     <t>김유하</t>
   </si>
   <si>
+    <t>박성경</t>
+  </si>
+  <si>
+    <t>고윤서</t>
+  </si>
+  <si>
     <t>정준섭</t>
   </si>
   <si>
@@ -175,6 +193,12 @@
     <t>최승민</t>
   </si>
   <si>
+    <t>4학년</t>
+  </si>
+  <si>
+    <t>장서주</t>
+  </si>
+  <si>
     <t>5학년</t>
   </si>
   <si>
@@ -196,9 +220,6 @@
     <t>방세영</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>조이택</t>
   </si>
   <si>
@@ -206,9 +227,6 @@
   </si>
   <si>
     <t>김태환</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>김민수</t>
@@ -583,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,13 +672,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -680,13 +698,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -706,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -732,7 +750,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -758,13 +776,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -784,7 +802,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -807,16 +825,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -833,16 +851,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -859,16 +877,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -885,13 +903,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>34</v>
@@ -911,13 +929,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
@@ -937,10 +955,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>37</v>
@@ -963,10 +981,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>39</v>
@@ -989,10 +1007,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
@@ -1015,13 +1033,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>44</v>
@@ -1041,16 +1059,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -1067,10 +1085,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>47</v>
@@ -1093,13 +1111,13 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>49</v>
@@ -1119,16 +1137,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1145,16 +1163,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -1171,16 +1189,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1197,16 +1215,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>13</v>
@@ -1223,16 +1241,16 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>13</v>
@@ -1249,13 +1267,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>57</v>
@@ -1275,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>58</v>
@@ -1301,16 +1319,16 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>13</v>
@@ -1327,16 +1345,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1353,13 +1371,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>63</v>
@@ -1379,10 +1397,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>64</v>
@@ -1405,13 +1423,13 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>66</v>
@@ -1423,6 +1441,136 @@
         <v>13</v>
       </c>
       <c r="H32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="13.5">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.5">
+      <c r="A34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.5">
+      <c r="A35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.5">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="13.5">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>13</v>
       </c>
     </row>
